--- a/Data/Temp/Directorio_Claves_Cinépolis_SALAM.xlsx
+++ b/Data/Temp/Directorio_Claves_Cinépolis_SALAM.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TECNOYAR\PLANEACION_BASES\Planeacion\XYZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yazmin\Documents\UiPath\cinepolisAndinaCentralAmerica\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A805DFBF-F408-4F7C-AA7E-9903BF19C406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A52C1D-D567-452F-9D35-25193991A45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="3" xr2:uid="{B2BC738D-3282-4E3F-A6AB-73009EA6094F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B2BC738D-3282-4E3F-A6AB-73009EA6094F}"/>
   </bookViews>
   <sheets>
     <sheet name="Claves Marcas México" sheetId="1" r:id="rId1"/>
     <sheet name="Direc Cafeterías México" sheetId="2" r:id="rId2"/>
     <sheet name="Regiones Argentina" sheetId="3" r:id="rId3"/>
     <sheet name="Claves Centroamérica" sheetId="4" r:id="rId4"/>
-    <sheet name="ANDINA" sheetId="9" r:id="rId5"/>
-    <sheet name="GULF" sheetId="5" r:id="rId6"/>
-    <sheet name="España" sheetId="6" r:id="rId7"/>
-    <sheet name="CHILE" sheetId="8" r:id="rId8"/>
-    <sheet name="USA" sheetId="7" r:id="rId9"/>
+    <sheet name="GULF" sheetId="5" r:id="rId5"/>
+    <sheet name="España" sheetId="6" r:id="rId6"/>
+    <sheet name="CHILE" sheetId="8" r:id="rId7"/>
+    <sheet name="USA" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ANDINA!$B$2:$I$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">CHILE!$B$2:$E$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Claves Centroamérica'!$B$3:$E$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Claves Marcas México'!$G$3:$H$479</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">USA!$G$2:$K$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="272">
   <si>
     <t>Directorio Cines Tracking</t>
   </si>
@@ -647,123 +647,102 @@
     <t>H. Parque Arauco Premium</t>
   </si>
   <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Ciudad</t>
-  </si>
-  <si>
-    <t>Tipo de Cine</t>
-  </si>
-  <si>
-    <t>Cinepolis ID</t>
-  </si>
-  <si>
-    <t>Cine</t>
-  </si>
-  <si>
-    <t>Andina</t>
-  </si>
-  <si>
-    <t>LATAM</t>
-  </si>
-  <si>
-    <t>LIMA</t>
+    <t>Chile - G.R. 1</t>
+  </si>
+  <si>
+    <t>C. Paseo Costanera Puerto Montt</t>
+  </si>
+  <si>
+    <t>C. VIP MULTIPLAZA PACIFIC PANAMA</t>
+  </si>
+  <si>
+    <t>VIP Andina Nuevo Tracking</t>
+  </si>
+  <si>
+    <t>C. VIP EL LIMONAR CALI COLOMBIA</t>
+  </si>
+  <si>
+    <t>C. VIP SOHO PANAMÁ</t>
+  </si>
+  <si>
+    <t>C. VIP FONTANAR CHÍA COLOMBIA</t>
+  </si>
+  <si>
+    <t>C. VIP STADIUM MALL PANAMÁ</t>
+  </si>
+  <si>
+    <t>C. VIP PLAZA CLARO</t>
+  </si>
+  <si>
+    <t>C. VIP Town Center</t>
+  </si>
+  <si>
+    <t>C. VIP BARRANQUILLA</t>
+  </si>
+  <si>
+    <t>C. PANAMA</t>
   </si>
   <si>
     <t>Tradicional Andina Nuevo Tracking</t>
   </si>
   <si>
+    <t>C. LOS HAYUELOS COLOMBIA</t>
+  </si>
+  <si>
+    <t>C. EL LIMONAR CALI COLOMBIA</t>
+  </si>
+  <si>
     <t>C. CENTRO LIMA PERU</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>PERU</t>
+    <t>C. SAN SILVESTRE COLOMBIA</t>
+  </si>
+  <si>
+    <t>C. METRO MALL PANAMA</t>
+  </si>
+  <si>
+    <t>C. CALIMA BOGOTA</t>
+  </si>
+  <si>
+    <t>C. WESTLAND MALL PANAMA</t>
   </si>
   <si>
     <t>C. SANTA ANITA LIMA</t>
   </si>
   <si>
-    <t>PANAMA</t>
-  </si>
-  <si>
-    <t>C. WESTLAND MALL PANAMA</t>
-  </si>
-  <si>
-    <t>BOGOTA</t>
-  </si>
-  <si>
-    <t>C. CALIMA BOGOTA</t>
-  </si>
-  <si>
-    <t>C. METRO MALL PANAMA</t>
+    <t>C. CITY PLAZA COLOMBIA ENVIGADO</t>
+  </si>
+  <si>
+    <t>C. DIVERPLAZA</t>
+  </si>
+  <si>
+    <t>C. CENCOSUD AREQUIPA</t>
   </si>
   <si>
     <t>C. PUCALLPA PERÚ</t>
   </si>
   <si>
-    <t>C. LOS HAYUELOS COLOMBIA</t>
-  </si>
-  <si>
-    <t>SANTANDER</t>
-  </si>
-  <si>
-    <t>BARRANCABERMEJA</t>
-  </si>
-  <si>
-    <t>C. SAN SILVESTRE COLOMBIA</t>
-  </si>
-  <si>
-    <t>VALLE DEL CAUCA</t>
-  </si>
-  <si>
-    <t>CALI</t>
-  </si>
-  <si>
-    <t>C. EL LIMONAR CALI COLOMBIA</t>
-  </si>
-  <si>
-    <t>C. CENCOSUD AREQUIPA</t>
-  </si>
-  <si>
-    <t>ANTIOQUIA</t>
-  </si>
-  <si>
-    <t>MEDELLIN</t>
-  </si>
-  <si>
-    <t>C. CITY PLAZA COLOMBIA ENVIGADO</t>
-  </si>
-  <si>
-    <t>C. PANAMA</t>
+    <t>C. MEGAMALL</t>
+  </si>
+  <si>
+    <t>C. ALTAPLAZA PANAMA</t>
   </si>
   <si>
     <t>C. FONTANAR CHÍA (COL)</t>
   </si>
   <si>
+    <t>C. MALL PLAZA MANIZALES</t>
+  </si>
+  <si>
     <t>C. ANDES MALL PANAMÁ</t>
   </si>
   <si>
-    <t>C. ALTAPLAZA PANAMA</t>
-  </si>
-  <si>
     <t>C. EL DORADO PANAMÁ</t>
   </si>
   <si>
     <t>C. TOWN CENTER</t>
   </si>
   <si>
-    <t>C. MEGAMALL</t>
-  </si>
-  <si>
-    <t>C. MALL PLAZA MANIZALES</t>
-  </si>
-  <si>
-    <t>C. DIVERPLAZA</t>
-  </si>
-  <si>
     <t>C. SANTA CATALINA</t>
   </si>
   <si>
@@ -773,41 +752,122 @@
     <t>C. FEDERAL MALL</t>
   </si>
   <si>
-    <t>VIP Andina Nuevo Tracking</t>
-  </si>
-  <si>
-    <t>C. VIP MULTIPLAZA PACIFIC PANAMA</t>
-  </si>
-  <si>
-    <t>C. VIP EL LIMONAR CALI COLOMBIA</t>
-  </si>
-  <si>
-    <t>C. VIP SOHO PANAMÁ</t>
-  </si>
-  <si>
-    <t>C. VIP FONTANAR CHÍA COLOMBIA</t>
-  </si>
-  <si>
-    <t>C. VIP STADIUM MALL PANAMÁ</t>
-  </si>
-  <si>
-    <t>C. VIP Town Center</t>
-  </si>
-  <si>
-    <t>C. VIP PLAZA CLARO</t>
-  </si>
-  <si>
-    <t>C. VIP BARRANQUILLA</t>
-  </si>
-  <si>
-    <t>CLAVE TIPO CINE</t>
+    <t>CINE</t>
+  </si>
+  <si>
+    <t>MARCA</t>
+  </si>
+  <si>
+    <t>DEL MAR</t>
+  </si>
+  <si>
+    <t>LUXURY</t>
+  </si>
+  <si>
+    <t>LA COSTA</t>
+  </si>
+  <si>
+    <t>COCONUT GROVE</t>
+  </si>
+  <si>
+    <t>PREMIUM</t>
+  </si>
+  <si>
+    <t>LAGUNA NIGUEL</t>
+  </si>
+  <si>
+    <t>RANCHO SANTA MARGARITA</t>
+  </si>
+  <si>
+    <t>WESTLAKE</t>
+  </si>
+  <si>
+    <t>DEERFIELD BEACH</t>
+  </si>
+  <si>
+    <t>SAN MATEO</t>
+  </si>
+  <si>
+    <t>POLK COUNTY</t>
+  </si>
+  <si>
+    <t>JUPITER LUXURY</t>
+  </si>
+  <si>
+    <t>DAYTON</t>
+  </si>
+  <si>
+    <t>PICO RIVERA</t>
+  </si>
+  <si>
+    <t>VISTA</t>
+  </si>
+  <si>
+    <t>VICTORY PARK</t>
+  </si>
+  <si>
+    <t>EULESS</t>
+  </si>
+  <si>
+    <t>WEST HARTFORD</t>
+  </si>
+  <si>
+    <t>PARSIPPANY</t>
+  </si>
+  <si>
+    <t>MANSFIELD</t>
+  </si>
+  <si>
+    <t>CHELSEA</t>
+  </si>
+  <si>
+    <t>HAMLIN</t>
+  </si>
+  <si>
+    <t>PACIFIC PALISADES</t>
+  </si>
+  <si>
+    <t>GAITHERSBURG</t>
+  </si>
+  <si>
+    <t>Austin Trails</t>
+  </si>
+  <si>
+    <t>MHE</t>
+  </si>
+  <si>
+    <t>Austin Lantana</t>
+  </si>
+  <si>
+    <t>Flower Mound</t>
+  </si>
+  <si>
+    <t>Keller</t>
+  </si>
+  <si>
+    <t>McKinney</t>
+  </si>
+  <si>
+    <t>WOODLANDS</t>
+  </si>
+  <si>
+    <t>LA COSTA TOWN SQAURE</t>
+  </si>
+  <si>
+    <t>C.T.C.</t>
+  </si>
+  <si>
+    <t>Cafeteria</t>
+  </si>
+  <si>
+    <t>Formato01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,8 +936,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -905,6 +979,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,7 +1116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1090,15 +1170,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1119,7 +1201,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1415,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569A9735-3F5E-4518-9B40-7519D91E123D}">
-  <dimension ref="A1:J479"/>
+  <dimension ref="A1:J481"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="A459" workbookViewId="0">
+      <selection activeCell="H482" sqref="H482"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
@@ -1931,7 +2013,7 @@
         <v>297</v>
       </c>
       <c r="H53">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="J53" t="s">
         <v>156</v>
@@ -4230,7 +4312,7 @@
         <v>305</v>
       </c>
       <c r="H340">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="J340" t="s">
         <v>157</v>
@@ -5345,6 +5427,22 @@
         <v>35</v>
       </c>
       <c r="H479">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="480" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G480">
+        <v>1102</v>
+      </c>
+      <c r="H480">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="481" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G481">
+        <v>703</v>
+      </c>
+      <c r="H481">
         <v>34</v>
       </c>
     </row>
@@ -5359,11 +5457,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66911656-BC99-4D98-9B92-D56F754FFB98}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
@@ -5857,10 +5955,10 @@
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
@@ -5964,13 +6062,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB424C17-D629-48F6-B7BB-50918BE1A304}">
   <dimension ref="B3:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -5984,7 +6083,7 @@
         <v>56</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>56</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -6450,423 +6549,423 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37">
+      <c r="B37" s="17">
         <v>364</v>
       </c>
-      <c r="C37" t="s">
-        <v>243</v>
-      </c>
-      <c r="D37">
+      <c r="C37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="1">
         <v>39</v>
       </c>
-      <c r="E37" t="s">
-        <v>242</v>
+      <c r="E37" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38">
+      <c r="B38" s="1">
         <v>421</v>
       </c>
-      <c r="C38" t="s">
-        <v>244</v>
-      </c>
-      <c r="D38">
+      <c r="C38" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="1">
         <v>39</v>
       </c>
-      <c r="E38" t="s">
-        <v>242</v>
+      <c r="E38" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39">
+      <c r="B39" s="17">
         <v>662</v>
       </c>
-      <c r="C39" t="s">
-        <v>245</v>
-      </c>
-      <c r="D39">
+      <c r="C39" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="1">
         <v>39</v>
       </c>
-      <c r="E39" t="s">
-        <v>242</v>
+      <c r="E39" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40">
+      <c r="B40" s="1">
         <v>700</v>
       </c>
-      <c r="C40" t="s">
-        <v>246</v>
-      </c>
-      <c r="D40">
+      <c r="C40" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" s="1">
         <v>39</v>
       </c>
-      <c r="E40" t="s">
-        <v>242</v>
+      <c r="E40" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41">
+      <c r="B41" s="17">
         <v>701</v>
       </c>
-      <c r="C41" t="s">
-        <v>247</v>
-      </c>
-      <c r="D41">
+      <c r="C41" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="1">
         <v>39</v>
       </c>
-      <c r="E41" t="s">
-        <v>242</v>
+      <c r="E41" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42">
+      <c r="B42" s="1">
         <v>978</v>
       </c>
-      <c r="C42" t="s">
-        <v>249</v>
-      </c>
-      <c r="D42">
+      <c r="C42" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42" s="1">
         <v>39</v>
       </c>
-      <c r="E42" t="s">
-        <v>242</v>
+      <c r="E42" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43">
+      <c r="B43" s="17">
         <v>1080</v>
       </c>
-      <c r="C43" t="s">
-        <v>248</v>
-      </c>
-      <c r="D43">
+      <c r="C43" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" s="1">
         <v>39</v>
       </c>
-      <c r="E43" t="s">
-        <v>242</v>
+      <c r="E43" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44">
+      <c r="B44" s="1">
         <v>1229</v>
       </c>
-      <c r="C44" t="s">
-        <v>250</v>
-      </c>
-      <c r="D44">
+      <c r="C44" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" s="1">
         <v>39</v>
       </c>
-      <c r="E44" t="s">
-        <v>242</v>
+      <c r="E44" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45">
+      <c r="B45" s="17">
         <v>228</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D45" s="1">
+        <v>38</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>350</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" s="1">
+        <v>38</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="17">
+        <v>382</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" s="1">
+        <v>38</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>383</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="1">
+        <v>38</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="17">
+        <v>405</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D49" s="1">
+        <v>38</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>406</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D50" s="1">
+        <v>38</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="17">
+        <v>436</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D51" s="1">
+        <v>38</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>496</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D52" s="1">
+        <v>38</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="17">
+        <v>497</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D53" s="1">
+        <v>38</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <v>526</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D54" s="1">
+        <v>38</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="17">
+        <v>549</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D55" s="1">
+        <v>38</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <v>551</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D56" s="1">
+        <v>38</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="17">
+        <v>569</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" s="1">
+        <v>38</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <v>625</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D58" s="1">
+        <v>38</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="17">
+        <v>633</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D59" s="1">
+        <v>38</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>636</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D60" s="1">
+        <v>38</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="17">
+        <v>637</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61" s="1">
+        <v>38</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>775</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="1">
+        <v>38</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="17">
+        <v>947</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D45">
+      <c r="D63" s="1">
         <v>38</v>
       </c>
-      <c r="E45" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>350</v>
-      </c>
-      <c r="C46" t="s">
-        <v>219</v>
-      </c>
-      <c r="D46">
+      <c r="E63" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <v>1079</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D64" s="1">
         <v>38</v>
       </c>
-      <c r="E46" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>382</v>
-      </c>
-      <c r="C47" t="s">
-        <v>225</v>
-      </c>
-      <c r="D47">
+      <c r="E64" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="17">
+        <v>1147</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" s="1">
         <v>38</v>
       </c>
-      <c r="E47" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>383</v>
-      </c>
-      <c r="C48" t="s">
-        <v>209</v>
-      </c>
-      <c r="D48">
+      <c r="E65" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <v>1284</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D66" s="1">
         <v>38</v>
       </c>
-      <c r="E48" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>405</v>
-      </c>
-      <c r="C49" t="s">
-        <v>222</v>
-      </c>
-      <c r="D49">
-        <v>38</v>
-      </c>
-      <c r="E49" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>406</v>
-      </c>
-      <c r="C50" t="s">
-        <v>217</v>
-      </c>
-      <c r="D50">
-        <v>38</v>
-      </c>
-      <c r="E50" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>436</v>
-      </c>
-      <c r="C51" t="s">
-        <v>216</v>
-      </c>
-      <c r="D51">
-        <v>38</v>
-      </c>
-      <c r="E51" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>496</v>
-      </c>
-      <c r="C52" t="s">
-        <v>214</v>
-      </c>
-      <c r="D52">
-        <v>38</v>
-      </c>
-      <c r="E52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>497</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="E66" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="D53">
-        <v>38</v>
-      </c>
-      <c r="E53" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>526</v>
-      </c>
-      <c r="C54" t="s">
-        <v>229</v>
-      </c>
-      <c r="D54">
-        <v>38</v>
-      </c>
-      <c r="E54" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>549</v>
-      </c>
-      <c r="C55" t="s">
-        <v>238</v>
-      </c>
-      <c r="D55">
-        <v>38</v>
-      </c>
-      <c r="E55" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>551</v>
-      </c>
-      <c r="C56" t="s">
-        <v>226</v>
-      </c>
-      <c r="D56">
-        <v>38</v>
-      </c>
-      <c r="E56" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>569</v>
-      </c>
-      <c r="C57" t="s">
-        <v>218</v>
-      </c>
-      <c r="D57">
-        <v>38</v>
-      </c>
-      <c r="E57" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>625</v>
-      </c>
-      <c r="C58" t="s">
-        <v>236</v>
-      </c>
-      <c r="D58">
-        <v>38</v>
-      </c>
-      <c r="E58" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>633</v>
-      </c>
-      <c r="C59" t="s">
-        <v>233</v>
-      </c>
-      <c r="D59">
-        <v>38</v>
-      </c>
-      <c r="E59" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>636</v>
-      </c>
-      <c r="C60" t="s">
-        <v>231</v>
-      </c>
-      <c r="D60">
-        <v>38</v>
-      </c>
-      <c r="E60" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>637</v>
-      </c>
-      <c r="C61" t="s">
-        <v>237</v>
-      </c>
-      <c r="D61">
-        <v>38</v>
-      </c>
-      <c r="E61" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>775</v>
-      </c>
-      <c r="C62" t="s">
-        <v>232</v>
-      </c>
-      <c r="D62">
-        <v>38</v>
-      </c>
-      <c r="E62" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>947</v>
-      </c>
-      <c r="C63" t="s">
-        <v>234</v>
-      </c>
-      <c r="D63">
-        <v>38</v>
-      </c>
-      <c r="E63" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>1079</v>
-      </c>
-      <c r="C64" t="s">
-        <v>235</v>
-      </c>
-      <c r="D64">
-        <v>38</v>
-      </c>
-      <c r="E64" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>1147</v>
-      </c>
-      <c r="C65" t="s">
-        <v>239</v>
-      </c>
-      <c r="D65">
-        <v>38</v>
-      </c>
-      <c r="E65" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>1284</v>
-      </c>
-      <c r="C66" t="s">
-        <v>240</v>
-      </c>
-      <c r="D66">
-        <v>38</v>
-      </c>
-      <c r="E66" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
@@ -6874,13 +6973,13 @@
         <v>1285</v>
       </c>
       <c r="C67" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D67">
         <v>38</v>
       </c>
       <c r="E67" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -6890,976 +6989,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0981603-84EE-4FEE-8D4C-CDA82F258392}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B2:V33"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="34" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F3">
-        <v>228</v>
-      </c>
-      <c r="G3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H3">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>230</v>
-      </c>
-      <c r="J3" t="s">
-        <v>210</v>
-      </c>
-      <c r="K3" s="34"/>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F4">
-        <v>350</v>
-      </c>
-      <c r="G4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H4">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J4" t="s">
-        <v>210</v>
-      </c>
-      <c r="K4" s="34"/>
-    </row>
-    <row r="5" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F5">
-        <v>364</v>
-      </c>
-      <c r="G5" t="s">
-        <v>242</v>
-      </c>
-      <c r="H5">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>243</v>
-      </c>
-      <c r="J5" t="s">
-        <v>210</v>
-      </c>
-      <c r="K5" s="34">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E6" t="s">
-        <v>224</v>
-      </c>
-      <c r="F6">
-        <v>382</v>
-      </c>
-      <c r="G6" t="s">
-        <v>208</v>
-      </c>
-      <c r="H6">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>225</v>
-      </c>
-      <c r="J6" t="s">
-        <v>210</v>
-      </c>
-      <c r="K6" s="34"/>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F7">
-        <v>383</v>
-      </c>
-      <c r="G7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H7">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>209</v>
-      </c>
-      <c r="J7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K7" s="34"/>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F8">
-        <v>405</v>
-      </c>
-      <c r="G8" t="s">
-        <v>208</v>
-      </c>
-      <c r="H8">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>222</v>
-      </c>
-      <c r="J8" t="s">
-        <v>210</v>
-      </c>
-      <c r="K8" s="34"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" t="s">
-        <v>213</v>
-      </c>
-      <c r="F9">
-        <v>406</v>
-      </c>
-      <c r="G9" t="s">
-        <v>208</v>
-      </c>
-      <c r="H9">
-        <v>38</v>
-      </c>
-      <c r="I9" t="s">
-        <v>217</v>
-      </c>
-      <c r="J9" t="s">
-        <v>210</v>
-      </c>
-      <c r="K9" s="34"/>
-    </row>
-    <row r="10" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" t="s">
-        <v>223</v>
-      </c>
-      <c r="E10" t="s">
-        <v>224</v>
-      </c>
-      <c r="F10">
-        <v>421</v>
-      </c>
-      <c r="G10" t="s">
-        <v>242</v>
-      </c>
-      <c r="H10">
-        <v>39</v>
-      </c>
-      <c r="I10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J10" t="s">
-        <v>210</v>
-      </c>
-      <c r="K10" s="34">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E11" t="s">
-        <v>215</v>
-      </c>
-      <c r="F11">
-        <v>436</v>
-      </c>
-      <c r="G11" t="s">
-        <v>208</v>
-      </c>
-      <c r="H11">
-        <v>38</v>
-      </c>
-      <c r="I11" t="s">
-        <v>216</v>
-      </c>
-      <c r="J11" t="s">
-        <v>210</v>
-      </c>
-      <c r="K11" s="34"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" t="s">
-        <v>206</v>
-      </c>
-      <c r="D12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12" t="s">
-        <v>213</v>
-      </c>
-      <c r="F12">
-        <v>496</v>
-      </c>
-      <c r="G12" t="s">
-        <v>208</v>
-      </c>
-      <c r="H12">
-        <v>38</v>
-      </c>
-      <c r="I12" t="s">
-        <v>214</v>
-      </c>
-      <c r="J12" t="s">
-        <v>210</v>
-      </c>
-      <c r="K12" s="34"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" t="s">
-        <v>211</v>
-      </c>
-      <c r="E13" t="s">
-        <v>211</v>
-      </c>
-      <c r="F13">
-        <v>497</v>
-      </c>
-      <c r="G13" t="s">
-        <v>208</v>
-      </c>
-      <c r="H13">
-        <v>38</v>
-      </c>
-      <c r="I13" t="s">
-        <v>212</v>
-      </c>
-      <c r="J13" t="s">
-        <v>210</v>
-      </c>
-      <c r="K13" s="34"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" t="s">
-        <v>206</v>
-      </c>
-      <c r="D14" t="s">
-        <v>227</v>
-      </c>
-      <c r="E14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F14">
-        <v>526</v>
-      </c>
-      <c r="G14" t="s">
-        <v>208</v>
-      </c>
-      <c r="H14">
-        <v>38</v>
-      </c>
-      <c r="I14" t="s">
-        <v>229</v>
-      </c>
-      <c r="J14" t="s">
-        <v>210</v>
-      </c>
-      <c r="K14" s="34"/>
-      <c r="V14" s="32"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" t="s">
-        <v>206</v>
-      </c>
-      <c r="D15" t="s">
-        <v>215</v>
-      </c>
-      <c r="E15" t="s">
-        <v>215</v>
-      </c>
-      <c r="F15">
-        <v>549</v>
-      </c>
-      <c r="G15" t="s">
-        <v>208</v>
-      </c>
-      <c r="H15">
-        <v>38</v>
-      </c>
-      <c r="I15" t="s">
-        <v>238</v>
-      </c>
-      <c r="J15" t="s">
-        <v>210</v>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="V15" s="32"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>205</v>
-      </c>
-      <c r="C16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D16" t="s">
-        <v>211</v>
-      </c>
-      <c r="E16" t="s">
-        <v>211</v>
-      </c>
-      <c r="F16">
-        <v>551</v>
-      </c>
-      <c r="G16" t="s">
-        <v>208</v>
-      </c>
-      <c r="H16">
-        <v>38</v>
-      </c>
-      <c r="I16" t="s">
-        <v>226</v>
-      </c>
-      <c r="J16" t="s">
-        <v>210</v>
-      </c>
-      <c r="K16" s="34"/>
-      <c r="V16" s="32"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" t="s">
-        <v>206</v>
-      </c>
-      <c r="D17" t="s">
-        <v>211</v>
-      </c>
-      <c r="E17" t="s">
-        <v>211</v>
-      </c>
-      <c r="F17">
-        <v>569</v>
-      </c>
-      <c r="G17" t="s">
-        <v>208</v>
-      </c>
-      <c r="H17">
-        <v>38</v>
-      </c>
-      <c r="I17" t="s">
-        <v>218</v>
-      </c>
-      <c r="J17" t="s">
-        <v>210</v>
-      </c>
-      <c r="K17" s="34"/>
-      <c r="V17" s="32"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" t="s">
-        <v>206</v>
-      </c>
-      <c r="D18" t="s">
-        <v>215</v>
-      </c>
-      <c r="E18" t="s">
-        <v>215</v>
-      </c>
-      <c r="F18">
-        <v>625</v>
-      </c>
-      <c r="G18" t="s">
-        <v>208</v>
-      </c>
-      <c r="H18">
-        <v>38</v>
-      </c>
-      <c r="I18" t="s">
-        <v>236</v>
-      </c>
-      <c r="J18" t="s">
-        <v>210</v>
-      </c>
-      <c r="K18" s="34"/>
-      <c r="V18" s="32"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>205</v>
-      </c>
-      <c r="C19" t="s">
-        <v>206</v>
-      </c>
-      <c r="D19" t="s">
-        <v>213</v>
-      </c>
-      <c r="E19" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19">
-        <v>633</v>
-      </c>
-      <c r="G19" t="s">
-        <v>208</v>
-      </c>
-      <c r="H19">
-        <v>38</v>
-      </c>
-      <c r="I19" t="s">
-        <v>233</v>
-      </c>
-      <c r="J19" t="s">
-        <v>210</v>
-      </c>
-      <c r="K19" s="34"/>
-      <c r="V19" s="32"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D20" t="s">
-        <v>215</v>
-      </c>
-      <c r="E20" t="s">
-        <v>215</v>
-      </c>
-      <c r="F20">
-        <v>636</v>
-      </c>
-      <c r="G20" t="s">
-        <v>208</v>
-      </c>
-      <c r="H20">
-        <v>38</v>
-      </c>
-      <c r="I20" t="s">
-        <v>231</v>
-      </c>
-      <c r="J20" t="s">
-        <v>210</v>
-      </c>
-      <c r="K20" s="34"/>
-      <c r="V20" s="32"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C21" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21" t="s">
-        <v>215</v>
-      </c>
-      <c r="E21" t="s">
-        <v>215</v>
-      </c>
-      <c r="F21">
-        <v>637</v>
-      </c>
-      <c r="G21" t="s">
-        <v>208</v>
-      </c>
-      <c r="H21">
-        <v>38</v>
-      </c>
-      <c r="I21" t="s">
-        <v>237</v>
-      </c>
-      <c r="J21" t="s">
-        <v>210</v>
-      </c>
-      <c r="K21" s="34"/>
-      <c r="V21" s="32"/>
-    </row>
-    <row r="22" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>205</v>
-      </c>
-      <c r="C22" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22" t="s">
-        <v>213</v>
-      </c>
-      <c r="E22" t="s">
-        <v>213</v>
-      </c>
-      <c r="F22">
-        <v>662</v>
-      </c>
-      <c r="G22" t="s">
-        <v>242</v>
-      </c>
-      <c r="H22">
-        <v>39</v>
-      </c>
-      <c r="I22" t="s">
-        <v>245</v>
-      </c>
-      <c r="J22" t="s">
-        <v>210</v>
-      </c>
-      <c r="K22" s="34">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>205</v>
-      </c>
-      <c r="C23" t="s">
-        <v>206</v>
-      </c>
-      <c r="D23" t="s">
-        <v>215</v>
-      </c>
-      <c r="E23" t="s">
-        <v>215</v>
-      </c>
-      <c r="F23">
-        <v>700</v>
-      </c>
-      <c r="G23" t="s">
-        <v>242</v>
-      </c>
-      <c r="H23">
-        <v>39</v>
-      </c>
-      <c r="I23" t="s">
-        <v>246</v>
-      </c>
-      <c r="J23" t="s">
-        <v>210</v>
-      </c>
-      <c r="K23" s="34">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" t="s">
-        <v>206</v>
-      </c>
-      <c r="D24" t="s">
-        <v>213</v>
-      </c>
-      <c r="E24" t="s">
-        <v>213</v>
-      </c>
-      <c r="F24">
-        <v>701</v>
-      </c>
-      <c r="G24" t="s">
-        <v>242</v>
-      </c>
-      <c r="H24">
-        <v>39</v>
-      </c>
-      <c r="I24" t="s">
-        <v>247</v>
-      </c>
-      <c r="J24" t="s">
-        <v>210</v>
-      </c>
-      <c r="K24" s="34">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>205</v>
-      </c>
-      <c r="C25" t="s">
-        <v>206</v>
-      </c>
-      <c r="D25" t="s">
-        <v>213</v>
-      </c>
-      <c r="E25" t="s">
-        <v>213</v>
-      </c>
-      <c r="F25">
-        <v>775</v>
-      </c>
-      <c r="G25" t="s">
-        <v>208</v>
-      </c>
-      <c r="H25">
-        <v>38</v>
-      </c>
-      <c r="I25" t="s">
-        <v>232</v>
-      </c>
-      <c r="J25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>205</v>
-      </c>
-      <c r="C26" t="s">
-        <v>206</v>
-      </c>
-      <c r="D26" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26" t="s">
-        <v>213</v>
-      </c>
-      <c r="F26">
-        <v>947</v>
-      </c>
-      <c r="G26" t="s">
-        <v>208</v>
-      </c>
-      <c r="H26">
-        <v>38</v>
-      </c>
-      <c r="I26" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>205</v>
-      </c>
-      <c r="C27" t="s">
-        <v>206</v>
-      </c>
-      <c r="D27" t="s">
-        <v>215</v>
-      </c>
-      <c r="E27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F27">
-        <v>978</v>
-      </c>
-      <c r="G27" t="s">
-        <v>242</v>
-      </c>
-      <c r="H27">
-        <v>39</v>
-      </c>
-      <c r="I27" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>205</v>
-      </c>
-      <c r="C28" t="s">
-        <v>206</v>
-      </c>
-      <c r="D28" t="s">
-        <v>213</v>
-      </c>
-      <c r="E28" t="s">
-        <v>213</v>
-      </c>
-      <c r="F28">
-        <v>1079</v>
-      </c>
-      <c r="G28" t="s">
-        <v>208</v>
-      </c>
-      <c r="H28">
-        <v>38</v>
-      </c>
-      <c r="I28" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>205</v>
-      </c>
-      <c r="C29" t="s">
-        <v>206</v>
-      </c>
-      <c r="D29" t="s">
-        <v>213</v>
-      </c>
-      <c r="E29" t="s">
-        <v>213</v>
-      </c>
-      <c r="F29">
-        <v>1080</v>
-      </c>
-      <c r="G29" t="s">
-        <v>242</v>
-      </c>
-      <c r="H29">
-        <v>39</v>
-      </c>
-      <c r="I29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>205</v>
-      </c>
-      <c r="C30" t="s">
-        <v>206</v>
-      </c>
-      <c r="D30" t="s">
-        <v>207</v>
-      </c>
-      <c r="E30" t="s">
-        <v>207</v>
-      </c>
-      <c r="F30">
-        <v>1147</v>
-      </c>
-      <c r="G30" t="s">
-        <v>208</v>
-      </c>
-      <c r="H30">
-        <v>38</v>
-      </c>
-      <c r="I30" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="31" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C31" t="s">
-        <v>206</v>
-      </c>
-      <c r="D31" t="s">
-        <v>215</v>
-      </c>
-      <c r="E31" t="s">
-        <v>215</v>
-      </c>
-      <c r="F31">
-        <v>1229</v>
-      </c>
-      <c r="G31" t="s">
-        <v>242</v>
-      </c>
-      <c r="H31">
-        <v>39</v>
-      </c>
-      <c r="I31" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>205</v>
-      </c>
-      <c r="C32" t="s">
-        <v>206</v>
-      </c>
-      <c r="D32" t="s">
-        <v>213</v>
-      </c>
-      <c r="E32" t="s">
-        <v>213</v>
-      </c>
-      <c r="F32">
-        <v>1284</v>
-      </c>
-      <c r="G32" t="s">
-        <v>208</v>
-      </c>
-      <c r="H32">
-        <v>38</v>
-      </c>
-      <c r="I32" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>205</v>
-      </c>
-      <c r="C33" t="s">
-        <v>206</v>
-      </c>
-      <c r="D33" t="s">
-        <v>213</v>
-      </c>
-      <c r="E33" t="s">
-        <v>213</v>
-      </c>
-      <c r="F33">
-        <v>1285</v>
-      </c>
-      <c r="G33" t="s">
-        <v>208</v>
-      </c>
-      <c r="H33">
-        <v>38</v>
-      </c>
-      <c r="I33" t="s">
-        <v>241</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B2:I33" xr:uid="{A0981603-84EE-4FEE-8D4C-CDA82F258392}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="38"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3B49B5-1DD8-40B6-85FA-7C81FBC84060}">
   <dimension ref="B3:D10"/>
   <sheetViews>
@@ -7867,7 +6996,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" customWidth="1"/>
@@ -7906,42 +7035,56 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50018C34-DB9B-46AA-BDCD-910FD7ED1DDE}">
-  <dimension ref="B2:E55"/>
+  <dimension ref="B1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>142</v>
+      <c r="B2" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="25">
+        <v>781</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="25">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -7952,10 +7095,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="25">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -7966,10 +7109,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="25">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -7980,10 +7123,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" s="25">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -7994,10 +7137,10 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" s="25">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -8008,10 +7151,10 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" s="25">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -8022,10 +7165,10 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="25">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -8036,10 +7179,10 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" s="25">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -8050,10 +7193,10 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" s="25">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -8064,10 +7207,10 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C12" s="25">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -8078,10 +7221,10 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C13" s="25">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -8092,10 +7235,10 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="25">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -8106,10 +7249,10 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C15" s="25">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -8120,10 +7263,10 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C16" s="25">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -8134,10 +7277,10 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C17" s="25">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -8148,10 +7291,10 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C18" s="25">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -8162,10 +7305,10 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C19" s="25">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -8176,10 +7319,10 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C20" s="25">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -8190,10 +7333,10 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C21" s="25">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -8204,10 +7347,10 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C22" s="25">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -8218,10 +7361,10 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C23" s="25">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -8232,10 +7375,10 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C24" s="25">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
@@ -8246,10 +7389,10 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C25" s="25">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -8260,10 +7403,10 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C26" s="25">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -8274,10 +7417,10 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C27" s="25">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
@@ -8288,10 +7431,10 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C28" s="25">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
@@ -8302,10 +7445,10 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C29" s="25">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -8316,10 +7459,10 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C30" s="25">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
@@ -8330,10 +7473,10 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C31" s="25">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
@@ -8344,10 +7487,10 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C32" s="25">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
@@ -8358,10 +7501,10 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C33" s="25">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -8372,10 +7515,10 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C34" s="25">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -8386,10 +7529,10 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C35" s="25">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
@@ -8400,10 +7543,10 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C36" s="25">
-        <v>817</v>
+        <v>780</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
@@ -8414,10 +7557,10 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C37" s="25">
-        <v>780</v>
+        <v>816</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
@@ -8428,10 +7571,10 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C38" s="25">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
@@ -8442,10 +7585,10 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C39" s="25">
-        <v>800</v>
+        <v>982</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
@@ -8456,10 +7599,10 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C40" s="25">
-        <v>982</v>
+        <v>1009</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
@@ -8470,10 +7613,10 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C41" s="25">
-        <v>1009</v>
+        <v>1075</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
@@ -8484,10 +7627,10 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C42" s="25">
-        <v>1075</v>
+        <v>1097</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
@@ -8498,10 +7641,10 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C43" s="25">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
@@ -8512,10 +7655,10 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C44" s="25">
-        <v>1098</v>
+        <v>1057</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
@@ -8526,10 +7669,10 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C45" s="25">
-        <v>1057</v>
+        <v>1120</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
@@ -8540,10 +7683,10 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C46" s="25">
-        <v>1120</v>
+        <v>1059</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
@@ -8554,10 +7697,10 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C47" s="25">
-        <v>1059</v>
+        <v>1119</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
@@ -8568,10 +7711,10 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C48" s="25">
-        <v>1119</v>
+        <v>1308</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
@@ -8582,10 +7725,10 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C49" s="25">
-        <v>1308</v>
+        <v>1321</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
@@ -8596,10 +7739,10 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="24" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C50" s="25">
-        <v>1321</v>
+        <v>1339</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
@@ -8610,10 +7753,10 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C51" s="25">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
@@ -8624,10 +7767,10 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="24" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C52" s="25">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
@@ -8638,24 +7781,24 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="24" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C53" s="25">
-        <v>1341</v>
+        <v>1053</v>
       </c>
       <c r="D53" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E53">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C54" s="25">
-        <v>1053</v>
+        <v>1310</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -8664,711 +7807,1411 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55" s="25">
-        <v>1310</v>
-      </c>
-      <c r="D55" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55">
-        <v>49</v>
-      </c>
-    </row>
   </sheetData>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496D5BB3-5839-424D-9578-0476203DF0CB}">
+  <dimension ref="B2:F41"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="28">
+        <v>707</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="28">
+        <v>708</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="28">
+        <v>710</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="28">
+        <v>711</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="28">
+        <v>712</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="28">
+        <v>713</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="28">
+        <v>714</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="28">
+        <v>715</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="28">
+        <v>716</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="28">
+        <v>717</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="28">
+        <v>718</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="28">
+        <v>719</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="28">
+        <v>720</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="28">
+        <v>721</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>200</v>
+      </c>
+      <c r="F16" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="28">
+        <v>722</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="28">
+        <v>723</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="28">
+        <v>724</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="28">
+        <v>725</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="29">
+        <v>726</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="28">
+        <v>727</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="28">
+        <v>728</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="28">
+        <v>729</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="28">
+        <v>730</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="28">
+        <v>843</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="28">
+        <v>824</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="28">
+        <v>918</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="28">
+        <v>916</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="28">
+        <v>917</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="28">
+        <v>873</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="28">
+        <v>1089</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="28">
+        <v>1197</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>200</v>
+      </c>
+      <c r="F33" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="28">
+        <v>1259</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34">
+        <v>46</v>
+      </c>
+      <c r="E34" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="28">
+        <v>1007</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35">
+        <v>46</v>
+      </c>
+      <c r="E35" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="28">
+        <v>1230</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36">
+        <v>46</v>
+      </c>
+      <c r="E36" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="28">
+        <v>1091</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37">
+        <v>46</v>
+      </c>
+      <c r="E37" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="28">
+        <v>760</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38">
+        <v>47</v>
+      </c>
+      <c r="E38" t="s">
+        <v>200</v>
+      </c>
+      <c r="F38" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="28">
+        <v>919</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39">
+        <v>47</v>
+      </c>
+      <c r="E39" t="s">
+        <v>200</v>
+      </c>
+      <c r="F39" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="28">
+        <v>709</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="D40">
+        <v>47</v>
+      </c>
+      <c r="E40" t="s">
+        <v>200</v>
+      </c>
+      <c r="F40" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="28">
+        <v>1006</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41">
+        <v>46</v>
+      </c>
+      <c r="E41" t="s">
+        <v>200</v>
+      </c>
+      <c r="F41" s="38">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:E41" xr:uid="{496D5BB3-5839-424D-9578-0476203DF0CB}"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496D5BB3-5839-424D-9578-0476203DF0CB}">
-  <dimension ref="B2:D40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5D94C8-E728-402D-830B-B0C15B48DFCC}">
+  <dimension ref="B2:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="28">
-        <v>707</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="28">
-        <v>708</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="28">
-        <v>710</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="28">
-        <v>711</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="28">
-        <v>712</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="28">
-        <v>713</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="28">
-        <v>714</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="28">
-        <v>715</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="28">
-        <v>716</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="28">
-        <v>717</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="28">
-        <v>718</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="28">
-        <v>719</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="28">
-        <v>720</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="28">
-        <v>721</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="28">
-        <v>722</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="28">
-        <v>723</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="28">
-        <v>724</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="D19">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="28">
-        <v>725</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="29">
-        <v>726</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="28">
-        <v>727</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="28">
-        <v>728</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="D23">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="28">
-        <v>729</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="D24">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="28">
-        <v>730</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="28">
-        <v>843</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="D26">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="28">
-        <v>824</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="D27">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="28">
-        <v>918</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="D28">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="28">
-        <v>916</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="D29">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="28">
-        <v>917</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="D30">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="28">
-        <v>873</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="D31">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="28">
-        <v>1089</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="D32">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="28">
-        <v>1197</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="28">
-        <v>1259</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="D34">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="28">
-        <v>1007</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="D35">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="28">
-        <v>1230</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="D36">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="28">
-        <v>1091</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D37">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="28">
-        <v>760</v>
-      </c>
-      <c r="C38" t="s">
-        <v>197</v>
-      </c>
-      <c r="D38">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="28">
-        <v>919</v>
-      </c>
-      <c r="C39" t="s">
-        <v>198</v>
-      </c>
-      <c r="D39">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="28">
-        <v>709</v>
-      </c>
-      <c r="C40" t="s">
-        <v>199</v>
-      </c>
-      <c r="D40">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5D94C8-E728-402D-830B-B0C15B48DFCC}">
-  <dimension ref="B2:C29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>459</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>459</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J3" s="1">
+        <v>43</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>460</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G4" s="1">
+        <v>460</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J4" s="1">
+        <v>43</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>509</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
+        <v>473</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J5" s="1">
+        <v>42</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>510</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>509</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J6" s="1">
+        <v>43</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>511</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <v>510</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J7" s="1">
+        <v>43</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>580</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G8" s="1">
+        <v>511</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J8" s="1">
+        <v>43</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>626</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
+        <v>580</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J9" s="1">
+        <v>42</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>627</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <v>626</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J10" s="1">
+        <v>43</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>628</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <v>627</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J11" s="1">
+        <v>42</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>698</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <v>628</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J12" s="1">
+        <v>43</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>731</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>698</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J13" s="1">
+        <v>42</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>732</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <v>731</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J14" s="1">
+        <v>42</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>765</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G15" s="1">
+        <v>732</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J15" s="1">
+        <v>42</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>845</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G16" s="1">
+        <v>765</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J16" s="1">
+        <v>43</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>910</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G17" s="1">
+        <v>845</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J17" s="1">
+        <v>42</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>911</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <v>910</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J18" s="1">
+        <v>43</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>912</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <v>911</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J19" s="1">
+        <v>42</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>914</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <v>912</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J20" s="1">
+        <v>42</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>926</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G21" s="1">
+        <v>914</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J21" s="1">
+        <v>42</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>1016</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G22" s="1">
+        <v>926</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J22" s="1">
+        <v>43</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>1017</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <v>1016</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J23" s="1">
+        <v>43</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>1301</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G24" s="1">
+        <v>1017</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J24" s="1">
+        <v>43</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>1302</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G25" s="1">
+        <v>1301</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J25" s="1">
+        <v>44</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>1303</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G26" s="1">
+        <v>1302</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J26" s="1">
+        <v>44</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>1304</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G27" s="1">
+        <v>1303</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J27" s="1">
+        <v>44</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>1305</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G28" s="1">
+        <v>1304</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J28" s="1">
+        <v>44</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>1306</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="G29" s="1">
+        <v>1305</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J29" s="1">
+        <v>44</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G30" s="1">
+        <v>1306</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J30" s="1">
+        <v>43</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G31" s="1">
+        <v>1170</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J31" s="1">
+        <v>43</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="G2:K31" xr:uid="{4D5D94C8-E728-402D-830B-B0C15B48DFCC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>